--- a/data/templates/caseStatisticsTemplate.xlsx
+++ b/data/templates/caseStatisticsTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\pkuvis.github.io\NCP\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDS\Desktop\疫情数据可视化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C4865F-AA5E-4175-A111-55207EFFA440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -22,13 +21,13 @@
     <definedName name="阿拉善盟">中国各省市区县数据!$C$419:$C$421</definedName>
     <definedName name="阿勒泰地区">中国各省市区县数据!$C$2847:$C$2853</definedName>
     <definedName name="阿里地区">中国各省市区县数据!$C$2490:$C$2496</definedName>
-    <definedName name="安徽省">中国各省市区县数据!$Q$2:$Q$17</definedName>
+    <definedName name="安徽省">中国各省市区县数据!$Q$2:$Q$18</definedName>
     <definedName name="安康市">中国各省市区县数据!$C$2587:$C$2596</definedName>
     <definedName name="安庆市">中国各省市区县数据!$C$956:$C$965</definedName>
     <definedName name="安顺市">中国各省市区县数据!$C$2234:$C$2239</definedName>
     <definedName name="安阳市">中国各省市区县数据!$C$1386:$C$1394</definedName>
     <definedName name="鞍山市">中国各省市区县数据!$C$445:$C$451</definedName>
-    <definedName name="澳门特别行政区">中国各省市区县数据!$AM$2:$AM$9</definedName>
+    <definedName name="澳门特别行政区">中国各省市区县数据!$AM$2:$AM$10</definedName>
     <definedName name="巴彦淖尔市">中国各省市区县数据!$C$383:$C$389</definedName>
     <definedName name="巴音郭楞蒙古自治州">中国各省市区县数据!$C$2787:$C$2795</definedName>
     <definedName name="巴中市">中国各省市区县数据!$C$2150:$C$2154</definedName>
@@ -42,7 +41,7 @@
     <definedName name="保定市">中国各省市区县数据!$C$114:$C$137</definedName>
     <definedName name="保山市">中国各省市区县数据!$C$2326:$C$2330</definedName>
     <definedName name="北海市">中国各省市区县数据!$C$1893:$C$1896</definedName>
-    <definedName name="北京市">中国各省市区县数据!$F$2:$F$17</definedName>
+    <definedName name="北京市">中国各省市区县数据!$F$2:$F$18</definedName>
     <definedName name="本溪市">中国各省市区县数据!$C$459:$C$464</definedName>
     <definedName name="毕节市">中国各省市区县数据!$C$2240:$C$2247</definedName>
     <definedName name="彬州市">中国各省市区县数据!$C$1676:$C$1686</definedName>
@@ -52,8 +51,10 @@
     <definedName name="沧州市">中国各省市区县数据!$C$165:$C$180</definedName>
     <definedName name="昌都市">中国各省市区县数据!$C$2449:$C$2459</definedName>
     <definedName name="昌吉回族自治州">中国各省市区县数据!$C$2776:$C$2782</definedName>
+    <definedName name="昌平区">中国各省市区县数据!$G$12:$AN$12</definedName>
     <definedName name="常德市">中国各省市区县数据!$C$1657:$C$1665</definedName>
     <definedName name="常州市">中国各省市区县数据!$C$754:$C$759</definedName>
+    <definedName name="朝阳区">中国各省市区县数据!$G$4:$AN$4</definedName>
     <definedName name="朝阳市">中国各省市区县数据!$C$509:$C$515</definedName>
     <definedName name="潮州市">中国各省市区县数据!$C$1834:$C$1836</definedName>
     <definedName name="成都市">中国各省市区县数据!$C$2023:$C$2042</definedName>
@@ -69,72 +70,79 @@
     <definedName name="大庆市">中国各省市区县数据!$C$641:$C$649</definedName>
     <definedName name="大同市">中国各省市区县数据!$C$212:$C$221</definedName>
     <definedName name="大兴安岭地区">中国各省市区县数据!$C$707:$C$709</definedName>
+    <definedName name="大兴区">中国各省市区县数据!$G$13:$AN$13</definedName>
     <definedName name="丹东市">中国各省市区县数据!$C$465:$C$470</definedName>
     <definedName name="德宏傣族景颇族自治州">中国各省市区县数据!$C$2411:$C$2415</definedName>
     <definedName name="德阳市">中国各省市区县数据!$C$2061:$C$2066</definedName>
     <definedName name="德州市">中国各省市区县数据!$C$1305:$C$1315</definedName>
     <definedName name="迪庆藏族自治州">中国各省市区县数据!$C$2420:$C$2422</definedName>
+    <definedName name="地区待确认">中国各省市区县数据!$G$18:$AN$18</definedName>
     <definedName name="定西市">中国各省市区县数据!$C$2659:$C$2665</definedName>
+    <definedName name="东城区">中国各省市区县数据!$G$2:$AN$2</definedName>
     <definedName name="东营市">中国各省市区县数据!$C$1239:$C$1243</definedName>
     <definedName name="鄂尔多斯市">中国各省市区县数据!$C$360:$C$368</definedName>
     <definedName name="鄂州市">中国各省市区县数据!$C$1547:$C$1549</definedName>
     <definedName name="恩施土家族苗族自治州">中国各省市区县数据!$C$1589:$C$1596</definedName>
     <definedName name="防城港市">中国各省市区县数据!$C$1897:$C$1900</definedName>
+    <definedName name="房山区">中国各省市区县数据!$G$9:$AN$9</definedName>
+    <definedName name="丰台区">中国各省市区县数据!$G$5:$AN$5</definedName>
     <definedName name="佛山市">中国各省市区县数据!$C$1763:$C$1767</definedName>
-    <definedName name="福建省">中国各省市区县数据!$R$2:$R$10</definedName>
+    <definedName name="福建省">中国各省市区县数据!$R$2:$R$11</definedName>
     <definedName name="福州市">中国各省市区县数据!$C$1016:$C$1029</definedName>
     <definedName name="抚顺市">中国各省市区县数据!$C$452:$C$458</definedName>
     <definedName name="抚州市">中国各省市区县数据!$C$1180:$C$1190</definedName>
     <definedName name="阜新市">中国各省市区县数据!$C$484:$C$490</definedName>
     <definedName name="阜阳市">中国各省市区县数据!$C$981:$C$988</definedName>
     <definedName name="甘南藏族自治州">中国各省市区县数据!$C$2683:$C$2690</definedName>
-    <definedName name="甘肃省">中国各省市区县数据!$AG$2:$AG$15</definedName>
+    <definedName name="甘肃省">中国各省市区县数据!$AG$2:$AG$16</definedName>
     <definedName name="甘孜藏族自治州">中国各省市区县数据!$C$2171:$C$2188</definedName>
     <definedName name="赣州市">中国各省市区县数据!$C$1139:$C$1156</definedName>
     <definedName name="固原市">中国各省市区县数据!$C$2750:$C$2754</definedName>
     <definedName name="广安市">中国各省市区县数据!$C$2129:$C$2134</definedName>
-    <definedName name="广东省">中国各省市区县数据!$X$2:$X$22</definedName>
-    <definedName name="广西壮族自治区">中国各省市区县数据!$Y$2:$Y$15</definedName>
+    <definedName name="广东省">中国各省市区县数据!$X$2:$X$23</definedName>
+    <definedName name="广西壮族自治区">中国各省市区县数据!$Y$2:$Y$16</definedName>
     <definedName name="广元市">中国各省市区县数据!$C$2076:$C$2082</definedName>
     <definedName name="广州市">中国各省市区县数据!$C$1723:$C$1733</definedName>
     <definedName name="贵港市">中国各省市区县数据!$C$1905:$C$1909</definedName>
     <definedName name="贵阳市">中国各省市区县数据!$C$2206:$C$2215</definedName>
-    <definedName name="贵州省">中国各省市区县数据!$AC$2:$AC$10</definedName>
+    <definedName name="贵州省">中国各省市区县数据!$AC$2:$AC$11</definedName>
     <definedName name="桂林市">中国各省市区县数据!$C$1869:$C$1885</definedName>
     <definedName name="果洛藏族自治州">中国各省市区县数据!$C$2717:$C$2722</definedName>
     <definedName name="哈尔滨市">中国各省市区县数据!$C$582:$C$599</definedName>
     <definedName name="哈密市">中国各省市区县数据!$C$2773:$C$2775</definedName>
     <definedName name="海北藏族自治州">中国各省市区县数据!$C$2704:$C$2707</definedName>
+    <definedName name="海淀区">中国各省市区县数据!$G$7:$AN$7</definedName>
     <definedName name="海东市">中国各省市区县数据!$C$2698:$C$2703</definedName>
     <definedName name="海口市">中国各省市区县数据!$C$1958:$C$1961</definedName>
     <definedName name="海南藏族自治州">中国各省市区县数据!$C$2712:$C$2716</definedName>
-    <definedName name="海南省">中国各省市区县数据!$Z$2:$Z$20</definedName>
+    <definedName name="海南省">中国各省市区县数据!$Z$2:$Z$21</definedName>
     <definedName name="海西蒙古族藏族自治州">中国各省市区县数据!$C$2729:$C$2734</definedName>
     <definedName name="邯郸市">中国各省市区县数据!$C$77:$C$94</definedName>
     <definedName name="汉中市">中国各省市区县数据!$C$2564:$C$2574</definedName>
     <definedName name="杭州市">中国各省市区县数据!$C$822:$C$834</definedName>
     <definedName name="合肥市">中国各省市区县数据!$C$911:$C$919</definedName>
     <definedName name="和田地区">中国各省市区县数据!$C$2821:$C$2828</definedName>
-    <definedName name="河北省">中国各省市区县数据!$H$2:$H$12</definedName>
+    <definedName name="河北省">中国各省市区县数据!$H$2:$H$13</definedName>
     <definedName name="河池市">中国各省市区县数据!$C$1934:$C$1944</definedName>
-    <definedName name="河南省">中国各省市区县数据!$U$2:$U$19</definedName>
+    <definedName name="河南省">中国各省市区县数据!$U$2:$U$20</definedName>
     <definedName name="河源市">中国各省市区县数据!$C$1814:$C$1819</definedName>
     <definedName name="菏泽市">中国各省市区县数据!$C$1331:$C$1339</definedName>
     <definedName name="贺州市">中国各省市区县数据!$C$1929:$C$1933</definedName>
     <definedName name="鹤壁市">中国各省市区县数据!$C$1395:$C$1399</definedName>
     <definedName name="鹤岗市">中国各省市区县数据!$C$625:$C$632</definedName>
     <definedName name="黑河市">中国各省市区县数据!$C$691:$C$696</definedName>
-    <definedName name="黑龙江省">中国各省市区县数据!$M$2:$M$14</definedName>
+    <definedName name="黑龙江省">中国各省市区县数据!$M$2:$M$15</definedName>
     <definedName name="衡水市">中国各省市区县数据!$C$191:$C$201</definedName>
     <definedName name="衡阳市">中国各省市区县数据!$C$1624:$C$1635</definedName>
     <definedName name="红河哈尼族彝族自治州">中国各省市区县数据!$C$2375:$C$2387</definedName>
     <definedName name="呼和浩特市">中国各省市区县数据!$C$319:$C$327</definedName>
     <definedName name="呼伦贝尔市">中国各省市区县数据!$C$369:$C$382</definedName>
     <definedName name="葫芦岛市">中国各省市区县数据!$C$516:$C$521</definedName>
-    <definedName name="湖北省">中国各省市区县数据!$V$2:$V$18</definedName>
-    <definedName name="湖南省">中国各省市区县数据!$W$2:$W$15</definedName>
+    <definedName name="湖北省">中国各省市区县数据!$V$2:$V$19</definedName>
+    <definedName name="湖南省">中国各省市区县数据!$W$2:$W$16</definedName>
     <definedName name="湖州市">中国各省市区县数据!$C$863:$C$867</definedName>
     <definedName name="怀化市">中国各省市区县数据!$C$1698:$C$1709</definedName>
+    <definedName name="怀柔区">中国各省市区县数据!$G$14:$AN$14</definedName>
     <definedName name="淮安市">中国各省市区县数据!$C$783:$C$789</definedName>
     <definedName name="淮北市">中国各省市区县数据!$C$948:$C$951</definedName>
     <definedName name="淮南市">中国各省市区县数据!$C$935:$C$941</definedName>
@@ -145,15 +153,15 @@
     <definedName name="惠州市">中国各省市区县数据!$C$1797:$C$1801</definedName>
     <definedName name="鸡西市">中国各省市区县数据!$C$616:$C$624</definedName>
     <definedName name="吉安市">中国各省市区县数据!$C$1157:$C$1169</definedName>
-    <definedName name="吉林省">中国各省市区县数据!$L$2:$L$10</definedName>
+    <definedName name="吉林省">中国各省市区县数据!$L$2:$L$11</definedName>
     <definedName name="吉林市">中国各省市区县数据!$C$532:$C$540</definedName>
     <definedName name="济南市">中国各省市区县数据!$C$1203:$C$1214</definedName>
     <definedName name="济宁市">中国各省市区县数据!$C$1268:$C$1278</definedName>
     <definedName name="佳木斯市">中国各省市区县数据!$C$667:$C$676</definedName>
     <definedName name="嘉兴市">中国各省市区县数据!$C$856:$C$862</definedName>
     <definedName name="江门市">中国各省市区县数据!$C$1768:$C$1774</definedName>
-    <definedName name="江苏省">中国各省市区县数据!$O$2:$O$14</definedName>
-    <definedName name="江西省">中国各省市区县数据!$S$2:$S$12</definedName>
+    <definedName name="江苏省">中国各省市区县数据!$O$2:$O$15</definedName>
+    <definedName name="江西省">中国各省市区县数据!$S$2:$S$13</definedName>
     <definedName name="焦作市">中国各省市区县数据!$C$1412:$C$1421</definedName>
     <definedName name="揭阳市">中国各省市区县数据!$C$1837:$C$1841</definedName>
     <definedName name="金昌市">中国各省市区县数据!$C$2613:$C$2614</definedName>
@@ -180,7 +188,7 @@
     <definedName name="丽水市">中国各省市区县数据!$C$902:$C$910</definedName>
     <definedName name="连云港市">中国各省市区县数据!$C$777:$C$782</definedName>
     <definedName name="凉山彝族自治州">中国各省市区县数据!$C$2189:$C$2205</definedName>
-    <definedName name="辽宁省">中国各省市区县数据!$K$2:$K$15</definedName>
+    <definedName name="辽宁省">中国各省市区县数据!$K$2:$K$16</definedName>
     <definedName name="辽阳市">中国各省市区县数据!$C$491:$C$497</definedName>
     <definedName name="辽源市">中国各省市区县数据!$C$547:$C$550</definedName>
     <definedName name="聊城市">中国各省市区县数据!$C$1316:$C$1323</definedName>
@@ -205,6 +213,8 @@
     <definedName name="茂名市">中国各省市区县数据!$C$1784:$C$1788</definedName>
     <definedName name="眉山市">中国各省市区县数据!$C$2113:$C$2118</definedName>
     <definedName name="梅州市">中国各省市区县数据!$C$1802:$C$1809</definedName>
+    <definedName name="门头沟区">中国各省市区县数据!$G$8:$AN$8</definedName>
+    <definedName name="密云区">中国各省市区县数据!$G$16:$AN$16</definedName>
     <definedName name="绵阳市">中国各省市区县数据!$C$2067:$C$2075</definedName>
     <definedName name="牡丹江市">中国各省市区县数据!$C$681:$C$690</definedName>
     <definedName name="那曲市">中国各省市区县数据!$C$2479:$C$2489</definedName>
@@ -216,14 +226,15 @@
     <definedName name="南通市">中国各省市区县数据!$C$769:$C$776</definedName>
     <definedName name="南阳市">中国各省市区县数据!$C$1445:$C$1457</definedName>
     <definedName name="内江市">中国各省市区县数据!$C$2088:$C$2092</definedName>
-    <definedName name="内蒙古自治区">中国各省市区县数据!$J$2:$J$13</definedName>
+    <definedName name="内蒙古自治区">中国各省市区县数据!$J$2:$J$14</definedName>
     <definedName name="宁波市">中国各省市区县数据!$C$835:$C$844</definedName>
     <definedName name="宁德市">中国各省市区县数据!$C$1094:$C$1102</definedName>
-    <definedName name="宁夏回族自治区">中国各省市区县数据!$AI$2:$AI$6</definedName>
+    <definedName name="宁夏回族自治区">中国各省市区县数据!$AI$2:$AI$8</definedName>
     <definedName name="怒江傈傈族自治州">中国各省市区县数据!$C$2416:$C$2419</definedName>
     <definedName name="攀枝花市">中国各省市区县数据!$C$2049:$C$2053</definedName>
     <definedName name="盘锦市">中国各省市区县数据!$C$498:$C$501</definedName>
     <definedName name="平顶山市">中国各省市区县数据!$C$1376:$C$1385</definedName>
+    <definedName name="平谷区">中国各省市区县数据!$G$15:$AN$15</definedName>
     <definedName name="平凉市">中国各省市区县数据!$C$2637:$C$2643</definedName>
     <definedName name="萍乡市">中国各省市区县数据!$C$1116:$C$1120</definedName>
     <definedName name="莆田市">中国各省市区县数据!$C$1036:$C$1040</definedName>
@@ -236,7 +247,7 @@
     <definedName name="钦州市">中国各省市区县数据!$C$1901:$C$1904</definedName>
     <definedName name="秦皇岛市">中国各省市区县数据!$C$70:$C$76</definedName>
     <definedName name="青岛市">中国各省市区县数据!$C$1215:$C$1224</definedName>
-    <definedName name="青海省">中国各省市区县数据!$AH$2:$AH$9</definedName>
+    <definedName name="青海省">中国各省市区县数据!$AH$2:$AH$10</definedName>
     <definedName name="清远市">中国各省市区县数据!$C$1824:$C$1831</definedName>
     <definedName name="庆阳市">中国各省市区县数据!$C$2651:$C$2658</definedName>
     <definedName name="衢州市">中国各省市区县数据!$C$883:$C$888</definedName>
@@ -249,15 +260,15 @@
     <definedName name="三沙市">中国各省市区县数据!$C$1966:$C$1968</definedName>
     <definedName name="三亚市">中国各省市区县数据!$C$1962:$C$1965</definedName>
     <definedName name="厦门市">中国各省市区县数据!$C$1030:$C$1035</definedName>
-    <definedName name="山东省">中国各省市区县数据!$T$2:$T$17</definedName>
+    <definedName name="山东省">中国各省市区县数据!$T$2:$T$18</definedName>
     <definedName name="山南市">中国各省市区县数据!$C$2467:$C$2478</definedName>
-    <definedName name="山西省">中国各省市区县数据!$I$2:$I$12</definedName>
-    <definedName name="陕西省">中国各省市区县数据!$AF$2:$AF$11</definedName>
+    <definedName name="山西省">中国各省市区县数据!$I$2:$I$13</definedName>
+    <definedName name="陕西省">中国各省市区县数据!$AF$2:$AF$12</definedName>
     <definedName name="汕头市">中国各省市区县数据!$C$1756:$C$1762</definedName>
     <definedName name="汕尾市">中国各省市区县数据!$C$1810:$C$1813</definedName>
     <definedName name="商洛市">中国各省市区县数据!$C$2597:$C$2603</definedName>
     <definedName name="商丘市">中国各省市区县数据!$C$1458:$C$1466</definedName>
-    <definedName name="上海市">中国各省市区县数据!$N$2:$N$17</definedName>
+    <definedName name="上海市">中国各省市区县数据!$N$2:$N$18</definedName>
     <definedName name="上饶市">中国各省市区县数据!$C$1191:$C$1202</definedName>
     <definedName name="韶关市">中国各省市区县数据!$C$1734:$C$1743</definedName>
     <definedName name="邵阳市">中国各省市区县数据!$C$1636:$C$1647</definedName>
@@ -266,10 +277,12 @@
     <definedName name="沈阳市">中国各省市区县数据!$C$422:$C$434</definedName>
     <definedName name="十堰市">中国各省市区县数据!$C$1517:$C$1524</definedName>
     <definedName name="石家庄市">中国各省市区县数据!$C$34:$C$55</definedName>
+    <definedName name="石景山区">中国各省市区县数据!$G$6:$AN$6</definedName>
     <definedName name="石嘴山市">中国各省市区县数据!$C$2741:$C$2743</definedName>
     <definedName name="双鸭山市">中国各省市区县数据!$C$633:$C$640</definedName>
+    <definedName name="顺义区">中国各省市区县数据!$G$11:$AN$11</definedName>
     <definedName name="朔州市">中国各省市区县数据!$C$245:$C$250</definedName>
-    <definedName name="四川省">中国各省市区县数据!$AB$2:$AB$22</definedName>
+    <definedName name="四川省">中国各省市区县数据!$AB$2:$AB$23</definedName>
     <definedName name="四平市">中国各省市区县数据!$C$541:$C$546</definedName>
     <definedName name="松原市">中国各省市区县数据!$C$564:$C$568</definedName>
     <definedName name="苏州市">中国各省市区县数据!$C$760:$C$768</definedName>
@@ -277,17 +290,18 @@
     <definedName name="随州市">中国各省市区县数据!$C$1586:$C$1588</definedName>
     <definedName name="遂宁市">中国各省市区县数据!$C$2083:$C$2087</definedName>
     <definedName name="塔城地区">中国各省市区县数据!$C$2840:$C$2846</definedName>
-    <definedName name="台湾省">中国各省市区县数据!$AK$2:$AK$21</definedName>
+    <definedName name="台湾省">中国各省市区县数据!$AK$2:$AK$22</definedName>
     <definedName name="台州市">中国各省市区县数据!$C$893:$C$901</definedName>
     <definedName name="太原市">中国各省市区县数据!$C$202:$C$211</definedName>
     <definedName name="泰安市">中国各省市区县数据!$C$1279:$C$1284</definedName>
     <definedName name="泰州市">中国各省市区县数据!$C$893:$C$901</definedName>
     <definedName name="唐山市">中国各省市区县数据!$C$56:$C$69</definedName>
-    <definedName name="天津市">中国各省市区县数据!$G$2:$G$17</definedName>
+    <definedName name="天津市">中国各省市区县数据!$G$2:$G$18</definedName>
     <definedName name="天水市">中国各省市区县数据!$C$2620:$C$2626</definedName>
     <definedName name="铁岭市">中国各省市区县数据!$C$502:$C$508</definedName>
     <definedName name="通化市">中国各省市区县数据!$C$551:$C$557</definedName>
     <definedName name="通辽市">中国各省市区县数据!$C$352:$C$359</definedName>
+    <definedName name="通州区">中国各省市区县数据!$G$10:$AN$10</definedName>
     <definedName name="铜川市">中国各省市区县数据!$C$2510:$C$2513</definedName>
     <definedName name="铜陵市">中国各省市区县数据!$C$952:$C$955</definedName>
     <definedName name="铜仁市">中国各省市区县数据!$C$2248:$C$2257</definedName>
@@ -307,20 +321,21 @@
     <definedName name="武汉市">中国各省市区县数据!$C$1498:$C$1510</definedName>
     <definedName name="武威市">中国各省市区县数据!$C$2627:$C$2630</definedName>
     <definedName name="西安市">中国各省市区县数据!$C$2497:$C$2509</definedName>
-    <definedName name="西藏自治区">中国各省市区县数据!$AE$2:$AE$8</definedName>
+    <definedName name="西藏自治区">中国各省市区县数据!$AE$2:$AE$9</definedName>
+    <definedName name="西城区">中国各省市区县数据!$G$3:$AN$3</definedName>
     <definedName name="西宁市">中国各省市区县数据!$C$2691:$C$2697</definedName>
     <definedName name="西双版纳傣族自治州">中国各省市区县数据!$C$2396:$C$2398</definedName>
     <definedName name="锡林郭勒盟">中国各省市区县数据!$C$407:$C$418</definedName>
     <definedName name="咸宁市">中国各省市区县数据!$C$1580:$C$1585</definedName>
     <definedName name="咸阳市">中国各省市区县数据!$C$2526:$C$2539</definedName>
-    <definedName name="香港特别行政区">中国各省市区县数据!$AL$2:$AL$19</definedName>
+    <definedName name="香港特别行政区">中国各省市区县数据!$AL$2:$AL$20</definedName>
     <definedName name="湘潭市">中国各省市区县数据!$C$1619:$C$1623</definedName>
     <definedName name="湘西土家族苗族自治州">中国各省市区县数据!$C$1715:$C$1722</definedName>
     <definedName name="襄阳市">中国各省市区县数据!$C$1538:$C$1546</definedName>
     <definedName name="孝感市">中国各省市区县数据!$C$1555:$C$1561</definedName>
     <definedName name="忻州市">中国各省市区县数据!$C$275:$C$288</definedName>
-    <definedName name="新疆生产建设兵团">中国各省市区县数据!$AN$2:$AN$15</definedName>
-    <definedName name="新疆维吾尔自治区">中国各省市区县数据!$AJ$2:$AJ$24</definedName>
+    <definedName name="新疆生产建设兵团">中国各省市区县数据!$AN$2:$AN$16</definedName>
+    <definedName name="新疆维吾尔自治区">中国各省市区县数据!$AJ$2:$AJ$25</definedName>
     <definedName name="新乡市">中国各省市区县数据!$C$1400:$C$1411</definedName>
     <definedName name="新余市">中国各省市区县数据!$C$1134:$C$1135</definedName>
     <definedName name="信阳市">中国各省市区县数据!$C$1467:$C$1476</definedName>
@@ -335,6 +350,7 @@
     <definedName name="烟台市">中国各省市区县数据!$C$1244:$C$1255</definedName>
     <definedName name="延安市">中国各省市区县数据!$C$2551:$C$2563</definedName>
     <definedName name="延边朝鲜族自治州">中国各省市区县数据!$C$574:$C$581</definedName>
+    <definedName name="延庆区">中国各省市区县数据!$G$17:$AN$17</definedName>
     <definedName name="盐城市">中国各省市区县数据!$C$790:$C$798</definedName>
     <definedName name="扬州市">中国各省市区县数据!$C$799:$C$804</definedName>
     <definedName name="阳江市">中国各省市区县数据!$C$1820:$C$1823</definedName>
@@ -355,7 +371,7 @@
     <definedName name="玉溪市">中国各省市区县数据!$C$2317:$C$2325</definedName>
     <definedName name="岳阳市">中国各省市区县数据!$C$1648:$C$1656</definedName>
     <definedName name="云浮市">中国各省市区县数据!$C$1842:$C$1846</definedName>
-    <definedName name="云南省">中国各省市区县数据!$AD$2:$AD$17</definedName>
+    <definedName name="云南省">中国各省市区县数据!$AD$2:$AD$18</definedName>
     <definedName name="运城市">中国各省市区县数据!$C$262:$C$274</definedName>
     <definedName name="枣庄市">中国各省市区县数据!$C$1233:$C$1238</definedName>
     <definedName name="湛江市">中国各省市区县数据!$C$1775:$C$1783</definedName>
@@ -368,11 +384,11 @@
     <definedName name="长治市">中国各省市区县数据!$C$227:$C$238</definedName>
     <definedName name="昭通市">中国各省市区县数据!$C$2331:$C$2341</definedName>
     <definedName name="肇庆市">中国各省市区县数据!$C$1789:$C$1796</definedName>
-    <definedName name="浙江省">中国各省市区县数据!$P$2:$P$12</definedName>
+    <definedName name="浙江省">中国各省市区县数据!$P$2:$P$13</definedName>
     <definedName name="镇江市">中国各省市区县数据!$C$805:$C$810</definedName>
     <definedName name="郑州市">中国各省市区县数据!$C$1340:$C$1351</definedName>
     <definedName name="中卫市">中国各省市区县数据!$C$2755:$C$2757</definedName>
-    <definedName name="重庆市">中国各省市区县数据!$AA$2:$AA$39</definedName>
+    <definedName name="重庆市">中国各省市区县数据!$AA$2:$AA$43</definedName>
     <definedName name="舟山市">中国各省市区县数据!$C$889:$C$892</definedName>
     <definedName name="周口市">中国各省市区县数据!$C$1477:$C$1486</definedName>
     <definedName name="珠海市">中国各省市区县数据!$C$1753:$C$1755</definedName>
@@ -393,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9250" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9250" uniqueCount="3306">
   <si>
     <t>统计级别</t>
   </si>
@@ -10333,11 +10349,19 @@
     <t>万盛经开区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>东城区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10778,50 +10802,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="13"/>
+    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -10923,7 +10947,7 @@
       </c>
       <c r="AN1" s="16"/>
     </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="2" spans="1:40" s="18" customFormat="1" ht="15">
       <c r="A2" s="16" t="s">
         <v>3260</v>
       </c>
@@ -11060,7 +11084,7 @@
         <v>3294</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>7</v>
+        <v>3305</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>43</v>
@@ -11082,35 +11106,39 @@
       <c r="AJ3" s="15"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576">
+      <formula1>INDIRECT($F4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>INDIRECT($G3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>INDIRECT($F3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -11123,18 +11151,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="160" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -11151,7 +11179,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>3305</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -11269,7 +11297,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>3304</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>412</v>
@@ -12339,6 +12367,9 @@
       <c r="K11" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>3300</v>
+      </c>
       <c r="M11" s="2" t="s">
         <v>300</v>
       </c>
@@ -12442,9 +12473,7 @@
       <c r="K12" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>3300</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
         <v>323</v>
       </c>
@@ -12809,6 +12838,9 @@
       <c r="X16" s="2" t="s">
         <v>397</v>
       </c>
+      <c r="Y16" s="2" t="s">
+        <v>3300</v>
+      </c>
       <c r="Z16" s="2" t="s">
         <v>398</v>
       </c>
@@ -12872,9 +12904,6 @@
       </c>
       <c r="X17" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>3300</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>409</v>
@@ -13506,8 +13535,8 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="AA40" s="2" t="s">
-        <v>3300</v>
+      <c r="AA40" s="19" t="s">
+        <v>3301</v>
       </c>
       <c r="AN40" s="1"/>
     </row>
@@ -13525,7 +13554,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="AA41" s="19" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="AN41" s="1"/>
     </row>
@@ -13543,7 +13572,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="AA42" s="19" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="AN42" s="1"/>
     </row>
@@ -13560,8 +13589,8 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="AA43" s="19" t="s">
-        <v>3303</v>
+      <c r="AA43" s="2" t="s">
+        <v>3300</v>
       </c>
       <c r="AN43" s="1"/>
     </row>
@@ -13578,6 +13607,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
+      <c r="AA44" s="2"/>
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40">
